--- a/vnclass/assets/files/GiaoVien_template.xlsx
+++ b/vnclass/assets/files/GiaoVien_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <r>
       <t xml:space="preserve">SỞ GD &amp; ĐT xxx
@@ -83,9 +83,6 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>dosuong16203@gmail.com</t>
-  </si>
-  <si>
     <t>0786808975</t>
   </si>
   <si>
@@ -105,6 +102,54 @@
   </si>
   <si>
     <t>0786808976</t>
+  </si>
+  <si>
+    <t>nhanb2110134@student.ctu.edu.vn</t>
+  </si>
+  <si>
+    <t>CB001</t>
+  </si>
+  <si>
+    <t>Trần Vũ Kỳ Anh</t>
+  </si>
+  <si>
+    <t>CB002</t>
+  </si>
+  <si>
+    <t>Tống Gia Bách</t>
+  </si>
+  <si>
+    <t>CB003</t>
+  </si>
+  <si>
+    <t>Phan Thị Thu Cúc</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>26/04/1990</t>
+  </si>
+  <si>
+    <t>26/04/1991</t>
+  </si>
+  <si>
+    <t>26/04/1992</t>
+  </si>
+  <si>
+    <t>0786808977</t>
+  </si>
+  <si>
+    <t>0786808978</t>
+  </si>
+  <si>
+    <t>0786808979</t>
   </si>
 </sst>
 </file>
@@ -176,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -273,6 +318,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -280,30 +358,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,9 +404,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -364,6 +424,42 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -651,589 +747,631 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="4" customWidth="1"/>
-    <col min="9" max="12" width="4.875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="4.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="2" customWidth="1"/>
+    <col min="9" max="12" width="4.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:15" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="18" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="F6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="18" t="s">
+    </row>
+    <row r="7" spans="1:15" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="G7" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1243,8 +1381,9 @@
     <mergeCell ref="A3:O3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId1" display="mailto:nhanb2110134@student.ctu.edu.vn"/>
+    <hyperlink ref="F6" r:id="rId2" display="mailto:nhanb2110134@student.ctu.edu.vn"/>
+    <hyperlink ref="F7:F9" r:id="rId3" display="mailto:nhanb2110134@student.ctu.edu.vn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
